--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6345,6 +6345,98 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45205.875</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-nantes/jVAv8oLo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>3.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.38</v>
+        <v>3.98</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.34</v>
+        <v>3.96</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>4.34</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,190 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-nantes/jVAv8oLo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:28</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:28</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:28</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-nice/Gxd42skN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45206.875</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:46</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-monaco/KA2e43KA/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.12</v>
+        <v>1.7</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:50</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.41</v>
+        <v>4.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.38</v>
+        <v>5.03</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.33</v>
+        <v>4.46</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.7</v>
+        <v>3.12</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.88</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.02</v>
+        <v>3.41</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.74</v>
+        <v>3.35</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.03</v>
+        <v>2.38</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.46</v>
+        <v>2.33</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,282 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/reims-monaco/KA2e43KA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/marseille-le-havre/nc4m6Pkb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.82</v>
+        <v>1.92</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.09</v>
+        <v>5.42</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>4.07</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>1.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.86</v>
+        <v>1.87</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.81</v>
+        <v>4.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.65</v>
+        <v>4.05</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.85</v>
+        <v>4.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.4</v>
+        <v>1.87</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.75</v>
+        <v>1.81</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6093,30 +6093,30 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,15 +6124,15 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,15 +6140,15 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,190 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45207.71180555555</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:03</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:49</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-lille/YD6a3NZG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45207.86458333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:23</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:23</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/rennes-paris-sg/UL9r75zh/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
       <c r="J61" t="n">
-        <v>4.05</v>
+        <v>1.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.86</v>
+        <v>1.87</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>4.54</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,63 +6101,63 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.65</v>
+        <v>4.05</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.85</v>
+        <v>4.86</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.4</v>
+        <v>1.87</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.75</v>
+        <v>1.81</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,98 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/rennes-paris-sg/UL9r75zh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45219.875</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lens/vXdEch3e/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.27</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:53</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:58</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.37</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 15:00</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.06</v>
+        <v>1.73</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:53</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.53</v>
+        <v>3.82</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:58</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:00</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>3.09</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Clermont</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.7</v>
+        <v>2.81</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.02</v>
+        <v>3.07</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.74</v>
+        <v>3.04</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:41</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.03</v>
+        <v>2.68</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.46</v>
+        <v>2.83</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1953,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.81</v>
+        <v>1.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.07</v>
+        <v>4.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.74</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:41</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>5.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.83</v>
+        <v>4.46</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.51</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.92</v>
+        <v>2.68</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.67</v>
+        <v>3.27</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.42</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.07</v>
+        <v>3.08</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.82</v>
+        <v>1.92</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.09</v>
+        <v>5.42</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.78</v>
+        <v>4.07</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.74</v>
+        <v>3.59</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.98</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>5.01</v>
+        <v>3.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.96</v>
+        <v>4.34</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,32 +4476,32 @@
         </is>
       </c>
       <c r="P44" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:31</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.59</v>
-      </c>
       <c r="S44" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.34</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.1</v>
+        <v>3.67</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.75</v>
+        <v>4.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,190 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lens/vXdEch3e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:34</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>13</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/paris-sg-strasbourg/42tvduSj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45220.875</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:34</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:33</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:34</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-marseille/nPv7aEYr/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.06</v>
+        <v>1.73</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:53</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.53</v>
+        <v>3.82</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:58</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:00</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.37</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.73</v>
+        <v>3.06</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:53</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 15:00</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>3.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:31</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.59</v>
-      </c>
       <c r="S42" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.34</v>
+        <v>2.44</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>4.34</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.65</v>
+        <v>4.05</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.85</v>
+        <v>4.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.4</v>
+        <v>1.87</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.75</v>
+        <v>1.81</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,63 +6101,63 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.05</v>
+        <v>1.65</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.86</v>
+        <v>1.85</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.61</v>
+        <v>4.1</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.87</v>
+        <v>5.4</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.81</v>
+        <v>4.75</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,48 +6760,48 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>08/10/2023 14:58</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="R69" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S69" t="inlineStr">
         <is>
           <t>24/09/2023 10:02</t>
         </is>
       </c>
-      <c r="P69" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>24/09/2023 10:02</t>
-        </is>
-      </c>
       <c r="T69" t="n">
-        <v>5.25</v>
+        <v>4.66</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.37</v>
+        <v>3.47</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.45</v>
+        <v>3.11</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.66</v>
+        <v>5.25</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,558 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/nice-marseille/nPv7aEYr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-rennes/KAOQJrKc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45221.71180555555</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:02</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:04</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:02</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:04</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>06/10/2023 09:02</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:04</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/monaco-metz/EXNUI2Z3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45221.86458333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-clermont/AaHwHt4G/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.74</v>
+        <v>3.59</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.9</v>
+        <v>4.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L60" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:48</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>1.87</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:47</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>3.85</v>
-      </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.54</v>
+        <v>1.81</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.05</v>
+        <v>1.65</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.86</v>
+        <v>1.85</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.61</v>
+        <v>4.1</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.87</v>
+        <v>5.4</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>4.75</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6093,30 +6093,30 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,15 +6124,15 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.1</v>
+        <v>3.67</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,15 +6140,15 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.75</v>
+        <v>4.54</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.37</v>
+        <v>3.47</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.45</v>
+        <v>3.11</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.66</v>
+        <v>5.25</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,48 +6852,48 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
           <t>08/10/2023 14:58</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O70" t="inlineStr">
+      <c r="R70" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S70" t="inlineStr">
         <is>
           <t>24/09/2023 10:02</t>
         </is>
       </c>
-      <c r="P70" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>24/09/2023 10:02</t>
-        </is>
-      </c>
       <c r="T70" t="n">
-        <v>5.25</v>
+        <v>4.66</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.34</v>
+        <v>4.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:55</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.65</v>
+        <v>6.48</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.32</v>
+        <v>4.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.52</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.48</v>
+        <v>3.5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,32 +7604,32 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>22/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>22/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:55</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,742 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/lyon-clermont/AaHwHt4G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45226.875</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:54</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nice/Shw9JZPE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-lorient/AHSDIguL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45227.875</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-nantes/OKWHHDfR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-paris-sg/02ZpBBXf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:31</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45228.71180555555</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/rennes-strasbourg/MenJdCI1/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,98 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/rennes-strasbourg/MenJdCI1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45233.875</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/paris-sg-montpellier/vgYlAVn1/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.73</v>
+        <v>3.09</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.09</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.48</v>
+        <v>3.82</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.98</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>5.01</v>
+        <v>3.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.96</v>
+        <v>4.34</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,32 +4476,32 @@
         </is>
       </c>
       <c r="P44" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:31</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.59</v>
-      </c>
       <c r="S44" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.34</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,48 +6760,48 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>08/10/2023 14:58</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="R69" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S69" t="inlineStr">
         <is>
           <t>24/09/2023 10:02</t>
         </is>
       </c>
-      <c r="P69" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>24/09/2023 10:02</t>
-        </is>
-      </c>
       <c r="T69" t="n">
-        <v>5.25</v>
+        <v>4.66</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.37</v>
+        <v>3.47</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.45</v>
+        <v>3.11</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.66</v>
+        <v>5.25</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.52</v>
+        <v>2.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.48</v>
+        <v>3.5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,32 +7512,32 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
+          <t>22/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
           <t>22/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:55</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.34</v>
+        <v>4.48</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:55</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.65</v>
+        <v>6.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.32</v>
+        <v>4.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,190 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/paris-sg-montpellier/vgYlAVn1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-lens/Us1sGLzK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45234.875</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/marseille-lille/ji2wH1LD/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.27</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:53</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:58</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.37</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 15:00</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.06</v>
+        <v>1.73</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:53</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.53</v>
+        <v>3.82</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:58</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:00</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>3.09</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>1.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>5.42</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.08</v>
+        <v>4.07</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:31</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.59</v>
-      </c>
       <c r="S42" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.34</v>
+        <v>2.44</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>4.34</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.86</v>
+        <v>1.85</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.61</v>
+        <v>4.1</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.87</v>
+        <v>5.4</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.81</v>
+        <v>4.75</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.1</v>
+        <v>3.67</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.75</v>
+        <v>4.54</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.9</v>
+        <v>4.05</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L62" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:48</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>1.87</v>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:47</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>3.85</v>
-      </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.54</v>
+        <v>1.81</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.37</v>
+        <v>3.47</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.45</v>
+        <v>3.11</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.66</v>
+        <v>5.25</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,48 +6852,48 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
           <t>08/10/2023 14:58</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O70" t="inlineStr">
+      <c r="R70" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S70" t="inlineStr">
         <is>
           <t>24/09/2023 10:02</t>
         </is>
       </c>
-      <c r="P70" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>24/09/2023 10:02</t>
-        </is>
-      </c>
       <c r="T70" t="n">
-        <v>5.25</v>
+        <v>4.66</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.67</v>
+        <v>1.52</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.73</v>
+        <v>1.91</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.5</v>
+        <v>4.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.53</v>
+        <v>6.48</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.76</v>
+        <v>4.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.52</v>
+        <v>2.67</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.48</v>
+        <v>3.5</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,32 +7696,32 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
+          <t>22/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
           <t>22/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R79" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T79" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.43</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.32</v>
+        <v>4.05</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.82</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.92</v>
+        <v>4.64</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.64</v>
+        <v>3.62</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,282 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/marseille-lille/ji2wH1LD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:48</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:48</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:48</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-metz/0QiDAabs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,54 +941,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
       <c r="J6" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>05/07/2023 22:22</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>05/07/2023 22:22</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>3.37</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>05/07/2023 22:22</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:53</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>05/07/2023 22:22</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:00</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.37</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.73</v>
+        <v>3.06</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:53</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 15:00</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.09</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.48</v>
+        <v>3.82</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>27/08/2023 14:57</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.81</v>
+        <v>3.48</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>27/08/2023 14:59</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.31</v>
+        <v>2.91</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.62</v>
+        <v>3.23</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>27/08/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>27/08/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>27/08/2023 15:00</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.74</v>
+        <v>1.51</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.6</v>
+        <v>5.42</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>4.07</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.98</v>
+        <v>3.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.01</v>
+        <v>3.59</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.96</v>
+        <v>4.34</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.38</v>
+        <v>3.98</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.34</v>
+        <v>3.96</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.43</v>
+        <v>1.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.32</v>
+        <v>4.05</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.82</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.92</v>
+        <v>4.64</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.64</v>
+        <v>3.62</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,282 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:36</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:39</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:36</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45235.71180555555</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:04</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:04</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:04</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/monaco-brest/bH5oFujQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45235.86458333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-rennes/rksI9JDm/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.67</v>
+        <v>2.43</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.05</v>
+        <v>3.32</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.82</v>
+        <v>3.09</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.64</v>
+        <v>2.92</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.24</v>
+        <v>2.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>4.05</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.62</v>
+        <v>4.64</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.43</v>
+        <v>2.01</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.32</v>
+        <v>3.81</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.87</v>
+        <v>2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.93</v>
+        <v>2.33</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:54</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:58</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.41</v>
+        <v>4.06</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.61</v>
+        <v>3.46</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:53</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.23</v>
+        <v>3.44</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:39</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.46</v>
+        <v>4.05</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Le Havre</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.17</v>
+        <v>2.87</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.04</v>
+        <v>2.93</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:54</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:39</t>
+          <t>05/11/2023 14:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.56</v>
+        <v>2.41</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.05</v>
+        <v>2.61</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:53</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,98 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/nice-rennes/rksI9JDm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45240.875</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:53</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-nice/zq6eNxrm/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.27</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:53</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:58</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.37</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 15:00</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.06</v>
+        <v>1.73</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:53</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.53</v>
+        <v>3.82</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:58</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:00</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>3.09</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.74</v>
+        <v>1.51</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.6</v>
+        <v>5.42</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.08</v>
+        <v>4.07</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -3609,30 +3609,30 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,11 +3640,11 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.44</v>
+        <v>4.34</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.38</v>
+        <v>3.98</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.34</v>
+        <v>3.96</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>4.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.85</v>
+        <v>4.86</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.4</v>
+        <v>1.87</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.75</v>
+        <v>1.81</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>4.05</v>
+        <v>1.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.86</v>
+        <v>1.87</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.81</v>
+        <v>4.54</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.52</v>
+        <v>2.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.48</v>
+        <v>3.5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,32 +7512,32 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
+          <t>22/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
           <t>22/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.67</v>
+        <v>1.52</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.73</v>
+        <v>1.91</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.5</v>
+        <v>4.48</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.53</v>
+        <v>6.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.76</v>
+        <v>4.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.43</v>
+        <v>2.01</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.32</v>
+        <v>3.81</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.43</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.05</v>
+        <v>3.32</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.82</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.64</v>
+        <v>2.92</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.24</v>
+        <v>2.74</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.81</v>
+        <v>4.05</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.62</v>
+        <v>4.64</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.33</v>
+        <v>2.93</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.06</v>
+        <v>2.41</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.46</v>
+        <v>2.61</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:53</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>2</v>
       </c>
-      <c r="J95" t="n">
-        <v>2.17</v>
-      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.04</v>
+        <v>2.33</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.44</v>
+        <v>3.23</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:39</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.05</v>
+        <v>3.46</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.87</v>
+        <v>2.17</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.93</v>
+        <v>2.04</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:54</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="N96" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
         <v>3.44</v>
       </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>22/10/2023 12:02</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:58</t>
+          <t>05/11/2023 14:39</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.41</v>
+        <v>3.56</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.61</v>
+        <v>4.05</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:53</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,190 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-nice/zq6eNxrm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-paris-sg/O4xw5eSI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45241.875</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-monaco/jBUOSbKP/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,54 +941,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
       <c r="J6" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>05/07/2023 22:22</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>05/07/2023 22:22</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>3.37</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>05/07/2023 22:22</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:53</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>05/07/2023 22:22</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:00</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.37</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.73</v>
+        <v>3.06</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:53</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 15:00</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.09</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.48</v>
+        <v>3.82</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.86</v>
+        <v>1.85</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.61</v>
+        <v>4.1</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.87</v>
+        <v>5.4</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.81</v>
+        <v>4.75</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.1</v>
+        <v>3.67</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.75</v>
+        <v>4.54</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.9</v>
+        <v>4.05</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L62" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:48</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>1.87</v>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:47</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>3.85</v>
-      </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.54</v>
+        <v>1.81</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:55</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.16</v>
+        <v>2.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:55</t>
+          <t>22/10/2023 14:52</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,282 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-monaco/jBUOSbKP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-toulouse/SxqU6Hc6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-lorient/pEwZ5yDC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:22</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-nantes/dh7iOISt/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,48 +2712,48 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>27/08/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>27/08/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>27/08/2023 15:00</t>
         </is>
       </c>
-      <c r="N25" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 14:57</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.81</v>
+        <v>3.48</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 14:59</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.31</v>
+        <v>2.91</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.62</v>
+        <v>3.23</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>3.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.51</v>
+        <v>2.74</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.92</v>
+        <v>2.68</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.67</v>
+        <v>3.27</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.42</v>
+        <v>2.6</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.07</v>
+        <v>3.08</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3609,30 +3609,30 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.82</v>
+        <v>1.92</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,11 +3640,11 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.09</v>
+        <v>5.42</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.78</v>
+        <v>4.07</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:31</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.59</v>
-      </c>
       <c r="S42" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.34</v>
+        <v>2.44</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.98</v>
+        <v>3.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.01</v>
+        <v>3.59</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.96</v>
+        <v>4.34</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.58</v>
+        <v>2.31</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>12/11/2023 14:50</t>
+          <t>12/11/2023 14:55</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.5</v>
+        <v>3.42</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.31</v>
+        <v>3.3</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>6.22</v>
+        <v>3.86</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>6.03</v>
+        <v>3.42</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>12/11/2023 14:59</t>
+          <t>12/11/2023 14:55</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-toulouse/SxqU6Hc6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-lorient/pEwZ5yDC/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.31</v>
+        <v>1.58</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>12/11/2023 14:55</t>
+          <t>12/11/2023 14:50</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.42</v>
+        <v>4.5</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.3</v>
+        <v>4.31</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.86</v>
+        <v>6.22</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.42</v>
+        <v>6.03</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>12/11/2023 14:55</t>
+          <t>12/11/2023 14:59</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-lorient/pEwZ5yDC/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-toulouse/SxqU6Hc6/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,190 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/metz-nantes/dh7iOISt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45242.71180555555</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:18</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:38</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:38</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/rennes-lyon/lnpQ7cr0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45242.86458333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-marseille/x8QKTv5J/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.81</v>
+        <v>3.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.07</v>
+        <v>3.41</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:41</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.83</v>
+        <v>2.33</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.12</v>
+        <v>1.7</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:50</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.41</v>
+        <v>4.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.38</v>
+        <v>5.03</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.33</v>
+        <v>4.46</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1953,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Clermont</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.7</v>
+        <v>2.81</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.02</v>
+        <v>3.07</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.74</v>
+        <v>3.04</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:41</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.03</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.46</v>
+        <v>2.83</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.44</v>
+        <v>4.34</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.38</v>
+        <v>3.98</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.34</v>
+        <v>3.96</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.1</v>
+        <v>3.67</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.75</v>
+        <v>4.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.34</v>
+        <v>4.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:55</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.65</v>
+        <v>6.48</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.32</v>
+        <v>4.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:55</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.52</v>
+        <v>2.67</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.48</v>
+        <v>3.5</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,32 +7696,32 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
+          <t>22/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
           <t>22/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R79" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T79" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.43</v>
+        <v>1.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.32</v>
+        <v>4.05</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.82</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.92</v>
+        <v>4.64</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.64</v>
+        <v>3.62</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.87</v>
+        <v>2.17</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.93</v>
+        <v>2.04</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:54</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="N94" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
         <v>3.44</v>
       </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>22/10/2023 12:02</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:58</t>
+          <t>05/11/2023 14:39</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.41</v>
+        <v>3.56</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.61</v>
+        <v>4.05</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:53</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.33</v>
+        <v>2.93</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:54</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:58</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.06</v>
+        <v>2.41</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.46</v>
+        <v>2.61</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:53</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>2</v>
       </c>
-      <c r="J96" t="n">
-        <v>2.17</v>
-      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.04</v>
+        <v>2.33</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.44</v>
+        <v>3.23</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:39</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.05</v>
+        <v>3.46</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
         </is>
       </c>
     </row>
@@ -10206,6 +10206,742 @@
       <c r="V106" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/lens-marseille/x8QKTv5J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45254.875</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/psg-monaco/8AJ2LGCa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45255.70833333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-lens/GGtUyxct/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45255.875</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-marseille/jZ87KzS5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-toulouse/E7f2tIlP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-brest/MDqxzGRh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-le-havre/AwtYzdCn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-metz/baCFIEdI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45256.71180555555</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:03</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/rennes-reims/4xDBJfsC/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,6 +10945,98 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45256.86458333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lille/xjBJHYBO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.12</v>
+        <v>2.81</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:50</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.41</v>
+        <v>3.07</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:41</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.33</v>
+        <v>2.83</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.7</v>
+        <v>3.12</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.88</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.02</v>
+        <v>3.41</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.74</v>
+        <v>3.35</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.03</v>
+        <v>2.38</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.46</v>
+        <v>2.33</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1953,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.81</v>
+        <v>1.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.07</v>
+        <v>4.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.74</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:41</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>5.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.83</v>
+        <v>4.46</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>27/08/2023 14:57</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.81</v>
+        <v>3.48</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>27/08/2023 14:59</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.31</v>
+        <v>2.91</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.62</v>
+        <v>3.23</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>27/08/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>27/08/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>27/08/2023 15:00</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.74</v>
+        <v>1.51</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.6</v>
+        <v>5.42</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.08</v>
+        <v>4.07</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -3609,30 +3609,30 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,11 +3640,11 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.64</v>
+        <v>3.62</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:59</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.81</v>
+        <v>4.05</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.62</v>
+        <v>4.64</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-toulouse/KjImCiIl/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Le Havre</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.17</v>
+        <v>2.87</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.04</v>
+        <v>2.93</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:39</t>
+          <t>05/11/2023 14:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.56</v>
+        <v>2.41</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 15:49</t>
+          <t>22/10/2023 12:02</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.05</v>
+        <v>2.61</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>05/11/2023 14:36</t>
+          <t>05/11/2023 14:53</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.87</v>
+        <v>2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.93</v>
+        <v>2.33</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:54</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:58</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.41</v>
+        <v>4.06</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.61</v>
+        <v>3.46</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 14:53</t>
+          <t>05/11/2023 14:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-reims/fPpM8wTg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.23</v>
+        <v>3.44</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:39</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>22/10/2023 12:02</t>
+          <t>23/10/2023 15:49</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.46</v>
+        <v>4.05</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 14:59</t>
+          <t>05/11/2023 14:36</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-clermont/YFXh9k27/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-le-havre/nJyc89HD/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.58</v>
+        <v>3.63</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,32 +10640,32 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="R111" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T111" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:59</t>
-        </is>
-      </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-brest/MDqxzGRh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-metz/baCFIEdI/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>26/11/2023 14:57</t>
+          <t>26/11/2023 14:59</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.35</v>
+        <v>3.23</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-le-havre/AwtYzdCn/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-brest/MDqxzGRh/</t>
         </is>
       </c>
     </row>
@@ -10785,62 +10785,62 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
         <v>2</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Metz</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K113" t="inlineStr">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O113" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M113" t="inlineStr">
+      <c r="P113" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q113" t="inlineStr">
         <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O113" t="inlineStr">
+      <c r="R113" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S113" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="P113" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R113" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
       <c r="T113" t="n">
-        <v>3.94</v>
+        <v>4.35</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-metz/baCFIEdI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-le-havre/AwtYzdCn/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,98 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lille/xjBJHYBO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45259.79166666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>29/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>29/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>29/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-clermont/fTf8114T/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11129,6 +11129,98 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45261.875</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:16</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:53</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-strasbourg/WjkNE5ep/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.81</v>
+        <v>3.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.07</v>
+        <v>3.41</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:41</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.83</v>
+        <v>2.33</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.12</v>
+        <v>1.7</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:50</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.41</v>
+        <v>4.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.38</v>
+        <v>5.03</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.33</v>
+        <v>4.46</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1953,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Clermont</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.7</v>
+        <v>2.81</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.02</v>
+        <v>3.07</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.74</v>
+        <v>3.04</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:41</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.03</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.46</v>
+        <v>2.83</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,48 +2712,48 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>27/08/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>27/08/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>27/08/2023 15:00</t>
         </is>
       </c>
-      <c r="N25" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 14:57</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.81</v>
+        <v>3.48</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 14:59</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.31</v>
+        <v>2.91</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.62</v>
+        <v>3.23</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>3.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.9</v>
+        <v>4.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L60" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:48</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>1.87</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:47</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:59</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>3.85</v>
-      </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.54</v>
+        <v>1.81</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>4.05</v>
+        <v>1.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.86</v>
+        <v>1.87</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.81</v>
+        <v>4.54</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.52</v>
+        <v>2.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.91</v>
+        <v>3.16</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.48</v>
+        <v>3.34</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:55</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>6.48</v>
+        <v>2.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.61</v>
+        <v>2.32</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.16</v>
+        <v>2.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:55</t>
+          <t>22/10/2023 14:52</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.67</v>
+        <v>1.52</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.73</v>
+        <v>1.91</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.5</v>
+        <v>4.48</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.53</v>
+        <v>6.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.76</v>
+        <v>4.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.43</v>
+        <v>2.01</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.32</v>
+        <v>3.81</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,98 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/reims-strasbourg/WjkNE5ep/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45262.70833333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>3</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-lyon/pfgRDPAj/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.12</v>
+        <v>1.7</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:50</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.41</v>
+        <v>4.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.38</v>
+        <v>5.03</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.33</v>
+        <v>4.46</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:54</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.7</v>
+        <v>3.12</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.88</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.02</v>
+        <v>3.41</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.74</v>
+        <v>3.35</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.03</v>
+        <v>2.38</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.46</v>
+        <v>2.33</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-nice/Y7iwyIj3/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.82</v>
+        <v>1.92</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.09</v>
+        <v>5.42</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>4.07</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.38</v>
+        <v>3.98</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.34</v>
+        <v>3.96</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>4.34</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.44</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>05/09/2023 12:01</t>
+          <t>11/09/2023 13:39</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>8.07</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>24/09/2023 14:59</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>1.58</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>4.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>4.73</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>11/09/2023 13:39</t>
+          <t>05/09/2023 12:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.26</v>
+        <v>8.07</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>1.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.86</v>
+        <v>1.87</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.81</v>
+        <v>4.54</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.65</v>
+        <v>4.05</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.85</v>
+        <v>4.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.4</v>
+        <v>1.87</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.75</v>
+        <v>1.81</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6093,30 +6093,30 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,15 +6124,15 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,15 +6140,15 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.34</v>
+        <v>4.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:55</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.65</v>
+        <v>6.48</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.32</v>
+        <v>4.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:55</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.52</v>
+        <v>2.67</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.48</v>
+        <v>3.5</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,32 +7696,32 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
+          <t>22/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
           <t>22/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R79" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T79" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-brest/hOMYHMlA/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.43</v>
+        <v>2.01</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.32</v>
+        <v>3.81</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -10601,62 +10601,62 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Metz</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K111" t="inlineStr">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O111" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M111" t="inlineStr">
+      <c r="P111" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q111" t="inlineStr">
         <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O111" t="inlineStr">
+      <c r="R111" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
       <c r="T111" t="n">
-        <v>3.94</v>
+        <v>4.35</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-metz/baCFIEdI/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-le-havre/AwtYzdCn/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,48 +10808,48 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
           <t>26/11/2023 14:57</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O113" t="inlineStr">
+      <c r="R113" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S113" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="P113" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Q113" t="inlineStr">
+      <c r="T113" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U113" t="inlineStr">
         <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="R113" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T113" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:59</t>
-        </is>
-      </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-le-havre/AwtYzdCn/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-metz/baCFIEdI/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,2490 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/lens-lyon/pfgRDPAj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45262.875</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-nice/bcs9x9mi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-psg/xltDyT2c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/monaco-montpellier/C2xkXDBB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-clermont/IacAzmI3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-lorient/4xZtZZta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45263.71180555555</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:01</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:04</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:04</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-metz/jgygWXQH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45263.86458333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/marseille-rennes/rTXpYgd5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45266.875</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>3</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>06/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/marseille-lyon/0noNeWX7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45267.85416666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>07/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>07/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>07/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-strasbourg/UJKbMdcg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45268.875</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-lens/d4yml6n3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45269.70833333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/rennes-monaco/4GaMXp2M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45269.875</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/psg-nantes/djdEZ6X9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-reims/INucRruj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-lille/dEv1Q2fd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-brest/bJIqknXd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-le-havre/jDeIYQnG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45270.71180555555</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:45</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:02</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:04</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-toulouse/llygSOPq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45270.86458333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>4</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>26/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-marseille/nukRW4HS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45275.875</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/monaco-lyon/QqT3pOoS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45276.70833333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:31</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:31</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-nice/Is8rwtv2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45276.875</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-reims/dSJZv29k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-brest/vi9vvMOe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-strasbourg/ngUao4WL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-montpellier/pldQ1PG2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-rennes/jRzimQ19/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45277.71180555555</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:00</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:04</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/marseille-clermont/UHZfnpHF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45277.86458333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-psg/rPFVurfq/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.09</v>
+        <v>1.73</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.48</v>
+        <v>3.82</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>3.09</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Clermont</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.7</v>
+        <v>2.81</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.02</v>
+        <v>3.07</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.74</v>
+        <v>3.04</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:41</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.03</v>
+        <v>2.68</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>10/08/2023 17:02</t>
+          <t>11/08/2023 08:43</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.46</v>
+        <v>2.83</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 14:59</t>
+          <t>20/08/2023 14:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1953,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.81</v>
+        <v>1.7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.07</v>
+        <v>4.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.74</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:41</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>5.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>11/08/2023 08:43</t>
+          <t>10/08/2023 17:02</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.83</v>
+        <v>4.46</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:58</t>
+          <t>20/08/2023 14:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-brest/nFBrFzUq/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-clermont/Uw1mEfqj/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.82</v>
+        <v>1.92</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.09</v>
+        <v>5.42</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.78</v>
+        <v>4.07</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 17:47</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.54</v>
+        <v>4.75</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
       <c r="J61" t="n">
-        <v>4.05</v>
+        <v>1.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.86</v>
+        <v>1.87</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.87</v>
+        <v>3.85</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:48</t>
+          <t>23/09/2023 17:47</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>4.54</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-metz/jVl9h6Lb/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,63 +6101,63 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.65</v>
+        <v>4.05</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.85</v>
+        <v>4.86</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.4</v>
+        <v>1.87</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:48</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.75</v>
+        <v>1.81</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>01/10/2023 14:59</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nice-brest/tKsMk45H/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lille/xSMdq2ro/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,48 +6760,48 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>08/10/2023 14:58</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="R69" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S69" t="inlineStr">
         <is>
           <t>24/09/2023 10:02</t>
         </is>
       </c>
-      <c r="P69" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>24/09/2023 10:02</t>
-        </is>
-      </c>
       <c r="T69" t="n">
-        <v>5.25</v>
+        <v>4.66</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.37</v>
+        <v>3.47</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.45</v>
+        <v>3.11</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.66</v>
+        <v>5.25</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-lorient/Qm3i5q54/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-toulouse/QBszcLCp/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.16</v>
+        <v>2.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:55</t>
+          <t>22/10/2023 14:52</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:52</t>
+          <t>22/10/2023 14:55</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-reims/67KMKO4i/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-montpellier/tnvBbYmk/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.43</v>
+        <v>2.01</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.32</v>
+        <v>3.81</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:31</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 14:58</t>
+          <t>29/10/2023 14:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:31</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 14:52</t>
+          <t>29/10/2023 14:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-monaco/l2v5KFA8/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-le-havre/t0JqDX2r/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>26/11/2023 14:57</t>
+          <t>26/11/2023 14:59</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.31</v>
+        <v>3.58</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.35</v>
+        <v>3.23</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-le-havre/AwtYzdCn/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-brest/MDqxzGRh/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,48 +10716,48 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="O112" t="inlineStr">
+      <c r="R112" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S112" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="P112" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q112" t="inlineStr">
+      <c r="T112" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U112" t="inlineStr">
         <is>
           <t>26/11/2023 14:59</t>
         </is>
       </c>
-      <c r="R112" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T112" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:59</t>
-        </is>
-      </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-brest/MDqxzGRh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-le-havre/AwtYzdCn/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/12/2023 14:56</t>
+          <t>03/12/2023 14:57</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.25</v>
+        <v>3.41</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4.51</v>
+        <v>3.83</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         </is>
       </c>
       <c r="R121" t="n">
-        <v>4.89</v>
+        <v>4.06</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.28</v>
+        <v>5.31</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/monaco-montpellier/C2xkXDBB/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-clermont/IacAzmI3/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,39 +11636,39 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
+          <t>03/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
           <t>03/12/2023 14:57</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O122" t="inlineStr">
+      <c r="R122" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S122" t="inlineStr">
         <is>
           <t>15/11/2023 16:01</t>
         </is>
       </c>
-      <c r="P122" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>03/12/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>15/11/2023 16:01</t>
-        </is>
-      </c>
       <c r="T122" t="n">
-        <v>5.31</v>
+        <v>5.28</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/brest-clermont/IacAzmI3/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/monaco-montpellier/C2xkXDBB/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>3.56</v>
+        <v>2.03</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>4.43</v>
+        <v>2.4</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.13</v>
+        <v>3.5</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1.91</v>
+        <v>3.43</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-lille/dEv1Q2fd/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-le-havre/jDeIYQnG/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,14 +12633,14 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>3.16</v>
+        <v>3.56</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>3.69</v>
+        <v>4.43</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>10/12/2023 14:52</t>
+          <t>10/12/2023 14:59</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.25</v>
+        <v>3.59</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>10/12/2023 14:57</t>
+          <t>10/12/2023 14:59</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.23</v>
+        <v>1.91</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>10/12/2023 14:57</t>
+          <t>10/12/2023 14:55</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-brest/bJIqknXd/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-lille/dEv1Q2fd/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.03</v>
+        <v>3.16</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.4</v>
+        <v>3.69</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>10/12/2023 14:59</t>
+          <t>10/12/2023 14:52</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>10/12/2023 14:59</t>
+          <t>10/12/2023 14:57</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.5</v>
+        <v>2.24</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.43</v>
+        <v>2.23</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>10/12/2023 14:55</t>
+          <t>10/12/2023 14:57</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-le-havre/jDeIYQnG/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-brest/bJIqknXd/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.31</v>
+        <v>3.21</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.44</v>
+        <v>3.43</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>17/12/2023 14:58</t>
+          <t>17/12/2023 14:53</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.09</v>
+        <v>2.14</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.28</v>
+        <v>2.28</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>17/12/2023 14:58</t>
+          <t>17/12/2023 14:51</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-strasbourg/ngUao4WL/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-rennes/jRzimQ19/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>3.55</v>
+        <v>2.31</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.31</v>
+        <v>2.44</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>17/12/2023 14:59</t>
+          <t>17/12/2023 14:58</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.59</v>
+        <v>3.25</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,32 +13492,32 @@
         </is>
       </c>
       <c r="P142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>03/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
         <v>3.28</v>
       </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>17/12/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R142" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>03/12/2023 10:02</t>
-        </is>
-      </c>
-      <c r="T142" t="n">
-        <v>2.37</v>
-      </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>17/12/2023 14:57</t>
+          <t>17/12/2023 14:58</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-montpellier/pldQ1PG2/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lorient-strasbourg/ngUao4WL/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,14 +13553,14 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>3.21</v>
+        <v>3.55</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>17/12/2023 14:58</t>
+          <t>17/12/2023 14:59</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>17/12/2023 14:53</t>
+          <t>17/12/2023 14:57</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>17/12/2023 14:51</t>
+          <t>17/12/2023 14:57</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-rennes/jRzimQ19/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-montpellier/pldQ1PG2/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,834 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/lille-psg/rPFVurfq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/toulouse-monaco/K6lwaN0L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>4</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-lorient/I1WPkJN7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>3</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-rennes/YDUDhLwk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lyon-nantes/ETmsbsGR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-marseille/6RSLja81/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>3</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/psg-metz/OveU0qW8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-le-havre/C4THiuge/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-lille/63pZa3oF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45280.875</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nice-lens/Gxz9g1Or/</t>
         </is>
       </c>
     </row>
